--- a/data/xls/2008-12-01/Norgine-Educational-Event-Report-July-December2008.xlsx
+++ b/data/xls/2008-12-01/Norgine-Educational-Event-Report-July-December2008.xlsx
@@ -2217,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
